--- a/Statistik/Del 2 og del 3 - intelligente systemer ENDELIGE.xlsx
+++ b/Statistik/Del 2 og del 3 - intelligente systemer ENDELIGE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis Thygesen\Documents\DTU\3-ugers projekt Jan 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirstine Cort Graae\Desktop\IS eksamensprojekt\3-ugers-projekt-Ham-n-spam\Statistik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8720AB17-200E-4850-9699-421285C21565}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E2DC0A-8B71-464B-9B79-20908FCB2F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="2316" windowWidth="17280" windowHeight="8994" xr2:uid="{6D73E902-0067-4F22-BF1F-47B3A20F83E3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{6D73E902-0067-4F22-BF1F-47B3A20F83E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -919,31 +921,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D2A8BE-00F6-40C0-B481-EF09B922C62E}">
   <dimension ref="A1:AI63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.3671875" customWidth="1"/>
-    <col min="4" max="4" width="11.62890625" customWidth="1"/>
-    <col min="8" max="8" width="18.1015625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.62890625" customWidth="1"/>
-    <col min="14" max="14" width="10.3671875" customWidth="1"/>
-    <col min="15" max="15" width="11.3671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.15625" customWidth="1"/>
-    <col min="21" max="21" width="24.1015625" customWidth="1"/>
-    <col min="25" max="25" width="14.89453125" customWidth="1"/>
-    <col min="27" max="27" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.3671875" customWidth="1"/>
-    <col min="32" max="32" width="12.1015625" customWidth="1"/>
-    <col min="35" max="35" width="6.68359375" customWidth="1"/>
-    <col min="36" max="36" width="7.68359375" customWidth="1"/>
-    <col min="37" max="37" width="9.578125" customWidth="1"/>
-    <col min="38" max="38" width="17.05078125" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6328125" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" customWidth="1"/>
+    <col min="15" max="15" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" customWidth="1"/>
+    <col min="21" max="21" width="24.08984375" customWidth="1"/>
+    <col min="25" max="25" width="14.90625" customWidth="1"/>
+    <col min="27" max="27" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.36328125" customWidth="1"/>
+    <col min="32" max="32" width="12.08984375" customWidth="1"/>
+    <col min="35" max="35" width="6.6328125" customWidth="1"/>
+    <col min="36" max="36" width="7.6328125" customWidth="1"/>
+    <col min="37" max="37" width="9.54296875" customWidth="1"/>
+    <col min="38" max="38" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:35" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -958,7 +960,7 @@
       </c>
       <c r="AI1" s="16"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -996,7 +998,7 @@
       </c>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1055,7 @@
         <v>0.97919076212471134</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1156,7 @@
         <v>3.4299500644715043E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1196,7 +1198,7 @@
         <v>6.722702126364148E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>41</v>
       </c>
@@ -1238,7 +1240,7 @@
       <c r="AF7" s="8"/>
       <c r="AG7" s="8"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -1284,7 +1286,7 @@
         <v>0.98591346425107551</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>0.97246805999834718</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1367,7 +1369,7 @@
       </c>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1428,7 +1430,7 @@
       </c>
       <c r="AG11" s="8"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>38</v>
       </c>
@@ -1501,7 +1503,7 @@
         <v>0.98906789838337172</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="8">
         <v>87</v>
@@ -1559,7 +1561,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1602,7 +1604,7 @@
         <v>2.4985666527141959E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1653,7 +1655,7 @@
         <v>4.8971906393198237E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1703,7 +1705,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1740,7 +1742,7 @@
         <v>0.99396508902269154</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>20</v>
       </c>
@@ -1780,7 +1782,7 @@
         <v>0.98417070774405191</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>9</v>
       </c>
@@ -1818,7 +1820,7 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
         <v>10</v>
       </c>
@@ -1865,7 +1867,7 @@
       </c>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>38</v>
       </c>
@@ -1912,7 +1914,7 @@
         <v>0.95819269213110481</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="8">
         <v>12</v>
@@ -1966,7 +1968,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2008,7 +2010,7 @@
         <v>4741.8863345600021</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2033,7 +2035,7 @@
       <c r="R24" s="8"/>
       <c r="S24" s="10"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2070,7 +2072,7 @@
         <v>986.11366543999793</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2100,7 +2102,7 @@
         <v>0.86620661355024087</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>1</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>0.87960000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>6</v>
       </c>
@@ -2167,7 +2169,7 @@
         <v>0.89299338644975923</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
@@ -2203,7 +2205,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>10</v>
       </c>
@@ -2241,7 +2243,7 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>38</v>
       </c>
@@ -2281,7 +2283,7 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="8">
         <v>39</v>
@@ -2317,7 +2319,7 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -2340,7 +2342,7 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2368,7 +2370,7 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2396,7 +2398,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2414,7 +2416,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>20</v>
       </c>
@@ -2440,7 +2442,7 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
@@ -2478,7 +2480,7 @@
       <c r="R38" s="8"/>
       <c r="S38" s="10"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2520,7 @@
       <c r="R39" s="8"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>38</v>
       </c>
@@ -2555,7 +2557,7 @@
       <c r="R40" s="8"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="8">
         <v>7</v>
@@ -2593,7 +2595,7 @@
       <c r="R41" s="8"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2618,7 +2620,7 @@
       <c r="R42" s="8"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2641,7 +2643,7 @@
       <c r="R43" s="8"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2664,19 +2666,19 @@
       <c r="R44" s="8"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K47" s="7"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -2687,7 +2689,7 @@
       <c r="R47" s="8"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K48" s="11"/>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -2698,7 +2700,7 @@
       <c r="R48" s="8"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K49" s="11"/>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -2709,7 +2711,7 @@
       <c r="R49" s="8"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K50" s="11"/>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -2720,7 +2722,7 @@
       <c r="R50" s="8"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K51" s="11"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -2731,7 +2733,7 @@
       <c r="R51" s="8"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K52" s="11"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -2742,7 +2744,7 @@
       <c r="R52" s="8"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -2759,7 +2761,7 @@
       <c r="R53" s="8"/>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>9</v>
       </c>
@@ -2776,7 +2778,7 @@
       <c r="R54" s="8"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>10</v>
       </c>
@@ -2793,7 +2795,7 @@
       <c r="R55" s="8"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>38</v>
       </c>
@@ -2813,7 +2815,7 @@
       <c r="R56" s="8"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B57">
         <v>301</v>
       </c>
@@ -2830,7 +2832,7 @@
       <c r="R57" s="8"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="K58" s="11"/>
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
@@ -2841,7 +2843,7 @@
       <c r="R58" s="8"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>51</v>
       </c>
@@ -2858,7 +2860,7 @@
       <c r="R59" s="8"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60" s="11" t="s">
         <v>9</v>
       </c>
@@ -2875,7 +2877,7 @@
       <c r="R60" s="8"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>10</v>
       </c>
@@ -2892,7 +2894,7 @@
       <c r="R61" s="8"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
         <v>38</v>
       </c>
@@ -2912,7 +2914,7 @@
       <c r="R62" s="8"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B63">
         <v>10</v>
       </c>

--- a/Statistik/Del 2 og del 3 - intelligente systemer ENDELIGE.xlsx
+++ b/Statistik/Del 2 og del 3 - intelligente systemer ENDELIGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirstine Cort Graae\Desktop\IS eksamensprojekt\3-ugers-projekt-Ham-n-spam\Statistik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E2DC0A-8B71-464B-9B79-20908FCB2F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4C0058-6AC8-4FEC-BDAD-726DA30D4628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{6D73E902-0067-4F22-BF1F-47B3A20F83E3}"/>
   </bookViews>
@@ -922,7 +922,7 @@
   <dimension ref="A1:AI63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="S21" s="10">
         <f>O35</f>
-        <v>0.95819269213110481</v>
+        <v>0.96752812131741506</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="S22" s="10">
         <f>O29</f>
-        <v>0.96567869718309851</v>
+        <v>0.97406390845070412</v>
       </c>
       <c r="Y22" t="s">
         <v>58</v>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="S23" s="10">
         <f>O34</f>
-        <v>0.97316470223509222</v>
+        <v>0.98059969558399318</v>
       </c>
       <c r="Y23" t="s">
         <v>46</v>
@@ -2192,7 +2192,7 @@
         <v>9</v>
       </c>
       <c r="L29" s="8">
-        <v>0.96650000000000003</v>
+        <v>0.97489999999999999</v>
       </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8" t="s">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="O29" s="8">
         <f>(L29*L30+2)/(L30+4)</f>
-        <v>0.96567869718309851</v>
+        <v>0.97406390845070412</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
@@ -2268,17 +2268,17 @@
         <v>38</v>
       </c>
       <c r="L31" s="8">
-        <v>1667</v>
+        <v>1703</v>
       </c>
       <c r="M31" s="8">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>14</v>
       </c>
       <c r="O31" s="8">
         <f>SQRT(O29*(1-O29)/O30)</f>
-        <v>3.8193903326498458E-3</v>
+        <v>3.3345852720862378E-3</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -2304,17 +2304,17 @@
       <c r="I32" s="10"/>
       <c r="K32" s="11"/>
       <c r="L32" s="8">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M32" s="8">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>15</v>
       </c>
       <c r="O32" s="8">
         <f>1.96*O31</f>
-        <v>7.486005051993698E-3</v>
+        <v>6.535787133289026E-3</v>
       </c>
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="O34" s="8">
         <f>O29+O32</f>
-        <v>0.97316470223509222</v>
+        <v>0.98059969558399318</v>
       </c>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="O35" s="8">
         <f>O29-O32</f>
-        <v>0.95819269213110481</v>
+        <v>0.96752812131741506</v>
       </c>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
